--- a/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,400 +461,435 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>24,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,91</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>23,13</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>24.3760545230349</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>21.05498389971773</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>23.27045970922683</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>21,15; 26,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>17,79; 23,77</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>20,72; 25,21</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>21.48427834032611</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>18.21136510462891</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>20.83921018687172</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>27.10329014855507</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>23.82987088072058</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>25.21677732624174</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>26,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>24,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>23,54; 29,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 24,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>22,05; 26,69</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>26.22012194256155</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>21.17452768108905</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>24.34885207703553</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>22.9100133750597</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>17.22370245229235</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>22.09680534149681</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>29.24699365639276</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>24.72404416372731</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>26.95885961667121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>30,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>27,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>30,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>27,81; 34,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>22,65; 31,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>27,53; 32,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>30.37895010965614</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>27.05325384287658</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>29.7781002610603</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>26.9254571047529</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>22.64884772212406</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>27.06165164577153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>33.92586374149563</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>31.4636919053622</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>32.53602325804243</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>29,13</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>21,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>26,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>26,29; 31,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>18,71; 25,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>24,5; 28,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>29.50868893900475</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>22.4587841371947</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>27.20228481916904</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>26.46537940463429</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>19.35337624768677</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>24.97691675666319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>32.2627437881992</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>25.6395985558348</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>29.5281626684493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>27,2</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>21,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>24,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>23,23; 32,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 25,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>20,55; 26,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>25.9573357947912</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>21.93455605511715</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>23.67049275441175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>20.8825734132571</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>17.91052305642752</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>20.34128319500083</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>30.58761378187535</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>26.44383864341422</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>27.06123753763968</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,76</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>26,32</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>24,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 28,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,2; 30,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>18,58; 28,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>15.76000604165242</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>26.88033636119259</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>24.64839583702393</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>7.822337846619588</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>17.86879754583823</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>17.68736397552474</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>28.99315176845151</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>31.45045901377474</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>29.42683057339358</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>27,3</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>22,13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>25,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>25,98; 28,68</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>20,63; 23,94</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>24,34; 26,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>27.06825479902469</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>22.47961091558899</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>25.37243726849655</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>25.40355849892554</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>20.68403574019213</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>24.24436211276703</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>28.41788527328309</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>24.02987922145138</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>26.60467113194556</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -902,14 +897,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
